--- a/NH_HealthCost_data/74177 CT - Abdomen & Pelvis, with contrast.xlsx
+++ b/NH_HealthCost_data/74177 CT - Abdomen & Pelvis, with contrast.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teresarokos/Desktop/Thesis Research/Thesis_Hospital_Costs/NH_HealthCost_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9708542-CE6F-BC46-BBEF-FDD80A096033}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F069612-6546-5D49-BD99-2310DBA0D2DA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16540" activeTab="4" xr2:uid="{908DF8FC-DA0E-9142-97C3-2981526D7DA1}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="42">
   <si>
     <t>Provider Name Compare Selected</t>
   </si>
@@ -148,16 +148,10 @@
     <t>Compare Lahey HealthLahey Health</t>
   </si>
   <si>
-    <t>44% </t>
-  </si>
-  <si>
     <t>Compare Upper Connecticut Valley HospitalUpper Connecticut Valley Hospital</t>
   </si>
   <si>
     <t>Compare Franklin Regional HospitalFranklin Regional Hospital</t>
-  </si>
-  <si>
-    <t>40% </t>
   </si>
   <si>
     <t>Compare Springfield Medical Care SystemSpringfield Medical Care System</t>
@@ -39290,7 +39284,7 @@
     </row>
     <row r="31" spans="1:4" ht="23" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="5">
         <v>5524</v>
@@ -39658,8 +39652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E1AB19-B2A1-2D43-8F7A-0C43C5AC3799}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E34"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39721,13 +39715,13 @@
     </row>
     <row r="4" spans="1:5" ht="23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="5">
         <v>2043</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>42</v>
+      <c r="C4" s="7">
+        <v>0.4</v>
       </c>
       <c r="D4" s="8">
         <v>1226</v>
@@ -39828,8 +39822,8 @@
       <c r="B10" s="5">
         <v>2697</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>39</v>
+      <c r="C10" s="7">
+        <v>0.44</v>
       </c>
       <c r="D10" s="8">
         <v>2023</v>
@@ -39891,7 +39885,7 @@
     </row>
     <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="5">
         <v>3684</v>
@@ -40146,7 +40140,7 @@
     </row>
     <row r="29" spans="1:5" ht="23" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="5">
         <v>6415</v>
